--- a/data/Results/Retrieval Results Easy Questions.xlsx
+++ b/data/Results/Retrieval Results Easy Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8AA12F-3CBC-409F-A5AA-71CFF19A9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D41B7-EA54-4325-8135-AFC6BCF09EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
   <si>
     <t>Precision@K</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Average time per question (seconds)</t>
+  </si>
+  <si>
+    <t>Hybrid (BM25) + rerank</t>
+  </si>
+  <si>
+    <t>Chroma + rerank</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,13 +190,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -205,15 +229,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5515799-0042-425E-AF30-12C0F6F85AE9}" name="Table1" displayName="Table1" ref="A1:F37" totalsRowShown="0" headerRowCellStyle="Hyperlink">
-  <autoFilter ref="A1:F37" xr:uid="{B5515799-0042-425E-AF30-12C0F6F85AE9}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5515799-0042-425E-AF30-12C0F6F85AE9}" name="Table1" displayName="Table1" ref="A1:G49" totalsRowShown="0" headerRowCellStyle="Hyperlink">
+  <autoFilter ref="A1:G49" xr:uid="{B5515799-0042-425E-AF30-12C0F6F85AE9}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4EE5EA51-808E-4BD8-BC58-9DEBF961B961}" name="Models"/>
     <tableColumn id="3" xr3:uid="{06D3CFCD-4136-4BEA-9312-8334ED9699CC}" name="Metadata"/>
     <tableColumn id="4" xr3:uid="{D9DEAB9F-B388-42C6-B46B-7AC9661C7BFD}" name="Top_k"/>
-    <tableColumn id="5" xr3:uid="{CAD0B8A7-8A6B-46EF-8612-344C24B5DA82}" name="Precision@K" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{40BC46BB-67DC-4EB1-B76C-FE2FB350C125}" name="Recall@K" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0BA554E8-115B-4C22-B362-F7F24BBEBFBE}" name="MRR@K" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CAD0B8A7-8A6B-46EF-8612-344C24B5DA82}" name="Precision@K" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{40BC46BB-67DC-4EB1-B76C-FE2FB350C125}" name="Recall@K" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0BA554E8-115B-4C22-B362-F7F24BBEBFBE}" name="MRR@K" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DE3A3EB7-A19F-4C9B-A2F5-FC8A1F946A29}" name="Average time per question (seconds)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +520,8 @@
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
@@ -519,6 +545,9 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -540,6 +569,9 @@
       <c r="F2" s="2">
         <v>0.34615384615384598</v>
       </c>
+      <c r="G2" s="2">
+        <v>2E-3</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -562,6 +594,9 @@
       </c>
       <c r="F3" s="2">
         <v>0.30769230769230699</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2E-3</v>
       </c>
       <c r="J3" s="3"/>
       <c r="L3" s="2"/>
@@ -587,6 +622,9 @@
       <c r="F4" s="2">
         <v>0.394230769230769</v>
       </c>
+      <c r="G4" s="2">
+        <v>0.16</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -611,6 +649,9 @@
       <c r="F5" s="2">
         <v>0.42948717948717902</v>
       </c>
+      <c r="G5" s="2">
+        <v>0.08</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -635,6 +676,9 @@
       <c r="F6" s="2">
         <v>0.41987179487179399</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.08</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -659,6 +703,9 @@
       <c r="F7" s="2">
         <v>0.53846153846153799</v>
       </c>
+      <c r="G7" s="2">
+        <v>2.14</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -666,22 +713,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>0.50480769230769196</v>
+        <v>0.59294871794871795</v>
       </c>
       <c r="E8" s="2">
-        <v>0.49759615384615302</v>
+        <v>0.59134615384615297</v>
       </c>
       <c r="F8" s="2">
-        <v>0.35576923076923</v>
+        <v>0.53525641025641002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.0599999999999996</v>
       </c>
       <c r="J8" s="3"/>
       <c r="L8" s="2"/>
@@ -690,22 +740,25 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>0.43269230769230699</v>
+        <v>0.55769230769230704</v>
       </c>
       <c r="E9" s="2">
-        <v>0.43269230769230699</v>
+        <v>0.55769230769230704</v>
       </c>
       <c r="F9" s="2">
-        <v>0.32211538461538403</v>
+        <v>0.512820512820512</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="J9" s="3"/>
       <c r="L9" s="2"/>
@@ -714,7 +767,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -723,13 +776,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.57692307692307598</v>
+        <v>0.50480769230769196</v>
       </c>
       <c r="E10" s="2">
-        <v>0.57692307692307598</v>
+        <v>0.49759615384615302</v>
       </c>
       <c r="F10" s="2">
-        <v>0.39903846153846101</v>
+        <v>0.35576923076923</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2E-3</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" s="2"/>
@@ -738,7 +794,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -747,13 +803,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.59615384615384603</v>
+        <v>0.43269230769230699</v>
       </c>
       <c r="E11" s="2">
-        <v>0.59134615384615297</v>
+        <v>0.43269230769230699</v>
       </c>
       <c r="F11" s="2">
-        <v>0.45512820512820501</v>
+        <v>0.32211538461538403</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2E-3</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" s="2"/>
@@ -762,7 +821,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -771,13 +830,16 @@
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>0.55288461538461497</v>
+        <v>0.57692307692307598</v>
       </c>
       <c r="E12" s="2">
-        <v>0.55288461538461497</v>
+        <v>0.57692307692307598</v>
       </c>
       <c r="F12" s="2">
-        <v>0.44230769230769201</v>
+        <v>0.39903846153846101</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.18</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" s="2"/>
@@ -786,7 +848,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -795,13 +857,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>0.60096153846153799</v>
+        <v>0.59615384615384603</v>
       </c>
       <c r="E13" s="2">
-        <v>0.59375</v>
+        <v>0.59134615384615297</v>
       </c>
       <c r="F13" s="2">
-        <v>0.53044871794871795</v>
+        <v>0.45512820512820501</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.08</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" s="2"/>
@@ -810,22 +875,25 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.52115384615384597</v>
+        <v>0.55288461538461497</v>
       </c>
       <c r="E14" s="2">
-        <v>0.51682692307692302</v>
+        <v>0.55288461538461497</v>
       </c>
       <c r="F14" s="2">
-        <v>0.359615384615384</v>
+        <v>0.44230769230769201</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.08</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" s="2"/>
@@ -834,22 +902,25 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>0.49038461538461497</v>
+        <v>0.60096153846153799</v>
       </c>
       <c r="E15" s="2">
-        <v>0.49038461538461497</v>
+        <v>0.59375</v>
       </c>
       <c r="F15" s="2">
-        <v>0.33365384615384602</v>
+        <v>0.53044871794871795</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" s="2"/>
@@ -858,22 +929,25 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.59134615384615297</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.59134615384615297</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.51923076923076905</v>
+      </c>
+      <c r="G16" s="2">
         <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.59615384615384603</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.59615384615384603</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.40288461538461501</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" s="2"/>
@@ -882,22 +956,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>0.60384615384615303</v>
+        <v>0.57692307692307598</v>
       </c>
       <c r="E17" s="2">
-        <v>0.60096153846153799</v>
+        <v>0.57692307692307598</v>
       </c>
       <c r="F17" s="2">
-        <v>0.45096153846153803</v>
+        <v>0.493589743589743</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.84</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" s="2"/>
@@ -906,7 +983,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -915,13 +992,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>0.57211538461538403</v>
+        <v>0.52115384615384597</v>
       </c>
       <c r="E18" s="2">
-        <v>0.57211538461538403</v>
+        <v>0.51682692307692302</v>
       </c>
       <c r="F18" s="2">
-        <v>0.43974358974358901</v>
+        <v>0.359615384615384</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2E-3</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" s="2"/>
@@ -930,7 +1010,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -939,13 +1019,16 @@
         <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>0.68461538461538396</v>
+        <v>0.49038461538461497</v>
       </c>
       <c r="E19" s="2">
-        <v>0.68028846153846101</v>
+        <v>0.49038461538461497</v>
       </c>
       <c r="F19" s="2">
-        <v>0.54935897435897396</v>
+        <v>0.33365384615384602</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2E-3</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" s="2"/>
@@ -953,23 +1036,26 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.48317307692307598</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.40384615384615302</v>
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.40288461538461501</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.18</v>
       </c>
       <c r="J20" s="3"/>
       <c r="L20" s="2"/>
@@ -977,23 +1063,26 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.43589743589743501</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.43269230769230699</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.36538461538461497</v>
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.60384615384615303</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.60096153846153799</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.45096153846153803</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.08</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
@@ -1003,23 +1092,26 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.77884615384615297</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.77884615384615297</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.57371794871794801</v>
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.57211538461538403</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.57211538461538403</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.43974358974358901</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.08</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
@@ -1029,23 +1121,26 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.65064102564102499</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.63942307692307598</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.52243589743589702</v>
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.68461538461538396</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.68028846153846101</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.54935897435897396</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3.86</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="5"/>
@@ -1055,23 +1150,26 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.63141025641025605</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.62980769230769196</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.50320512820512797</v>
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.67788461538461497</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.67788461538461497</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.53397435897435896</v>
+      </c>
+      <c r="G24" s="14">
+        <v>6.5</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
@@ -1081,23 +1179,26 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8">
-        <v>3</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.887820512820512</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.87259615384615297</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.875</v>
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.48269230769230698</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.8</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="5"/>
@@ -1114,16 +1215,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6">
-        <v>0.64423076923076905</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="6">
-        <v>0.63461538461538403</v>
+        <v>0.48317307692307598</v>
       </c>
       <c r="F26" s="6">
-        <v>0.44230769230769201</v>
+        <v>0.40384615384615302</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2E-3</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
@@ -1140,16 +1244,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="10">
-        <v>0.49038461538461497</v>
+        <v>0.43589743589743501</v>
       </c>
       <c r="E27" s="10">
-        <v>0.49038461538461497</v>
+        <v>0.43269230769230699</v>
       </c>
       <c r="F27" s="10">
-        <v>0.37980769230769201</v>
+        <v>0.36538461538461497</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2E-3</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
@@ -1166,16 +1273,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6">
-        <v>0.83653846153846101</v>
+        <v>0.77884615384615297</v>
       </c>
       <c r="E28" s="6">
-        <v>0.83653846153846101</v>
+        <v>0.77884615384615297</v>
       </c>
       <c r="F28" s="6">
-        <v>0.58814102564102499</v>
+        <v>0.57371794871794801</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.14000000000000001</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
@@ -1192,16 +1302,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="10">
-        <v>0.78846153846153799</v>
+        <v>0.65064102564102499</v>
       </c>
       <c r="E29" s="10">
-        <v>0.78365384615384603</v>
+        <v>0.63942307692307598</v>
       </c>
       <c r="F29" s="10">
-        <v>0.58974358974358898</v>
+        <v>0.52243589743589702</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.08</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
@@ -1218,16 +1331,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>0.76923076923076905</v>
+        <v>0.63141025641025605</v>
       </c>
       <c r="E30" s="6">
-        <v>0.76923076923076905</v>
+        <v>0.62980769230769196</v>
       </c>
       <c r="F30" s="6">
-        <v>0.56089743589743501</v>
+        <v>0.50320512820512797</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.08</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
@@ -1244,16 +1360,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.887820512820512</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.87259615384615297</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="G31" s="2">
         <v>4</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.96634615384615297</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.95673076923076905</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.92307692307692302</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
@@ -1263,23 +1382,26 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.72115384615384603</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.71394230769230704</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0.45769230769230701</v>
+      <c r="A32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="15">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.83012820512820495</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.82692307692307598</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.81730769230769196</v>
+      </c>
+      <c r="G32" s="16">
+        <v>3.86</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
@@ -1289,23 +1411,26 @@
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="8">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.52884615384615297</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.52884615384615297</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.38750000000000001</v>
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.77884615384615297</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.77884615384615297</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.75961538461538403</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.12</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
@@ -1316,22 +1441,25 @@
     </row>
     <row r="34" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="6">
-        <v>0.88461538461538403</v>
+        <v>0.64423076923076905</v>
       </c>
       <c r="E34" s="6">
-        <v>0.88461538461538403</v>
+        <v>0.63461538461538403</v>
       </c>
       <c r="F34" s="6">
-        <v>0.59583333333333299</v>
+        <v>0.44230769230769201</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2E-3</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="9"/>
@@ -1342,22 +1470,25 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="10">
-        <v>0.81442307692307603</v>
+        <v>0.49038461538461497</v>
       </c>
       <c r="E35" s="10">
-        <v>0.81009615384615297</v>
+        <v>0.49038461538461497</v>
       </c>
       <c r="F35" s="10">
-        <v>0.60416666666666596</v>
+        <v>0.37980769230769201</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2E-3</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="5"/>
@@ -1368,22 +1499,25 @@
     </row>
     <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="6">
-        <v>0.76923076923076905</v>
+        <v>0.83653846153846101</v>
       </c>
       <c r="E36" s="6">
-        <v>0.76923076923076905</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0.56217948717948696</v>
+        <v>0.83653846153846101</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.58814102564102499</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.16</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
@@ -1394,22 +1528,25 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="10">
-        <v>0.96730769230769198</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.96153846153846101</v>
+        <v>0.78846153846153799</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.78365384615384603</v>
       </c>
       <c r="F37" s="10">
-        <v>0.92307692307692302</v>
+        <v>0.58974358974358898</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.08</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="5"/>
@@ -1419,12 +1556,278 @@
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.56089743589743501</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.08</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
       <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.96634615384615297</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.95673076923076905</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="15">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.86538461538461497</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.86538461538461497</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.83653846153846101</v>
+      </c>
+      <c r="G40" s="16">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.83653846153846101</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.83653846153846101</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.72115384615384603</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.71394230769230704</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.45769230769230701</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.52884615384615297</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.52884615384615297</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.59583333333333299</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.81442307692307603</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.81009615384615297</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0.56217948717948696</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="8">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.96730769230769198</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="15">
+        <v>5</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.91346153846153799</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.91346153846153799</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.86923076923076903</v>
+      </c>
+      <c r="G48" s="16">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/Results/Retrieval Results Easy Questions.xlsx
+++ b/data/Results/Retrieval Results Easy Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D41B7-EA54-4325-8135-AFC6BCF09EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB9C1C-175D-4A2F-B84B-9CB55773DFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,10 +1824,18 @@
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="D49" s="2">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.84134615384615297</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
